--- a/biology/Zoologie/Bleu-nacré_de_Corse/Bleu-nacré_de_Corse.xlsx
+++ b/biology/Zoologie/Bleu-nacré_de_Corse/Bleu-nacré_de_Corse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_de_Corse</t>
+          <t>Bleu-nacré_de_Corse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lysandra nufrellensis
 Le Bleu-nacré de Corse (Lysandra nufrellensis) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_de_Corse</t>
+          <t>Bleu-nacré_de_Corse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Historique et taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Découvert en 1975 en Corse près de la Muvrella[1], le taxon actuellement appelé Lysandra nufrellensis a été décrit par Schurian en 1977 sous le nom de Lysandra coridon nufrellensis[2],[3],[4], puis il n'a pas été revu avant 2001[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Découvert en 1975 en Corse près de la Muvrella, le taxon actuellement appelé Lysandra nufrellensis a été décrit par Schurian en 1977 sous le nom de Lysandra coridon nufrellensis puis il n'a pas été revu avant 2001.
 Le statut de ce taxon (espèce à part entière ou sous-espèce de Lysandra coridon) reste débattu.
-Comme le genre Lysandra était précédemment considéré par certains auteurs comme un sous-genre du genre Polyommatus, le Bleu-nacré de Corse est parfois cité sous les noms de Polyommatus nufrellensis ou Polyommatus coridon nufrellensis[3],[4].
+Comme le genre Lysandra était précédemment considéré par certains auteurs comme un sous-genre du genre Polyommatus, le Bleu-nacré de Corse est parfois cité sous les noms de Polyommatus nufrellensis ou Polyommatus coridon nufrellensis,.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_de_Corse</t>
+          <t>Bleu-nacré_de_Corse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En français : le Bleu-nacré de Corse[4].
-En anglais : Corsican Chalk Hill Blue[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En français : le Bleu-nacré de Corse.
+En anglais : Corsican Chalk Hill Blue.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_de_Corse</t>
+          <t>Bleu-nacré_de_Corse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'imago du Bleu-nacré de Corse ressemble aux Argus bleu-nacré du continent. Les femelles ont le dessus des ailes bleu plutôt que brun[6], et la ponctuation du revers peut être assez réduite[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago du Bleu-nacré de Corse ressemble aux Argus bleu-nacré du continent. Les femelles ont le dessus des ailes bleu plutôt que brun, et la ponctuation du revers peut être assez réduite.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_de_Corse</t>
+          <t>Bleu-nacré_de_Corse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Plantes-hôtes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors que la plante-hôte principale de Lysandra coridon est Hippocrepis comosa, la seule plante-hôte connue de Lysandra nufrellensis est Hippocrepis conradiae, une espèce endémique de Corse découverte grâce à ce papillon, et décrite en 2011[7]. La preuve qu'elle est effectivement une plante-hôte de Lysandra nufrellensis a été apportée en 2012[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors que la plante-hôte principale de Lysandra coridon est Hippocrepis comosa, la seule plante-hôte connue de Lysandra nufrellensis est Hippocrepis conradiae, une espèce endémique de Corse découverte grâce à ce papillon, et décrite en 2011. La preuve qu'elle est effectivement une plante-hôte de Lysandra nufrellensis a été apportée en 2012.
 </t>
         </is>
       </c>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_de_Corse</t>
+          <t>Bleu-nacré_de_Corse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,10 +659,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Lysandra nufrellensis est endémique de Corse, où il vit dans des zones montagneuses escarpées et peu accessibles.
-Il a la particularité de vivre sur sol cristallin, alors que les Lysandra du continent sont typiquement liés aux sols calcaires[5].
+Il a la particularité de vivre sur sol cristallin, alors que les Lysandra du continent sont typiquement liés aux sols calcaires.
 </t>
         </is>
       </c>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_de_Corse</t>
+          <t>Bleu-nacré_de_Corse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,9 +693,11 @@
           <t>Statut et protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lysandra nufrellensis est une espèce déterminante de l'inventaire ZNIEFF en Corse[9].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lysandra nufrellensis est une espèce déterminante de l'inventaire ZNIEFF en Corse.
 </t>
         </is>
       </c>
